--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H2">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I2">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J2">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.715915666666668</v>
+        <v>8.358234666666666</v>
       </c>
       <c r="N2">
-        <v>17.147747</v>
+        <v>25.074704</v>
       </c>
       <c r="O2">
-        <v>0.2508332176216154</v>
+        <v>0.2848820810009698</v>
       </c>
       <c r="P2">
-        <v>0.2565140925817717</v>
+        <v>0.2922576747042885</v>
       </c>
       <c r="Q2">
-        <v>0.5875180130192222</v>
+        <v>0.2339414161635555</v>
       </c>
       <c r="R2">
-        <v>5.287662117173</v>
+        <v>2.105472745472</v>
       </c>
       <c r="S2">
-        <v>0.002507341790885646</v>
+        <v>0.001521103643837815</v>
       </c>
       <c r="T2">
-        <v>0.002597818054682448</v>
+        <v>0.001590110565120096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H3">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I3">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J3">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.350452</v>
       </c>
       <c r="O3">
-        <v>0.3415649302546324</v>
+        <v>0.2652922785478647</v>
       </c>
       <c r="P3">
-        <v>0.3493006985788987</v>
+        <v>0.2721606924976703</v>
       </c>
       <c r="Q3">
-        <v>0.8000357809186665</v>
+        <v>0.2178545281706666</v>
       </c>
       <c r="R3">
-        <v>7.200322028267999</v>
+        <v>1.960690753536</v>
       </c>
       <c r="S3">
-        <v>0.003414300673766023</v>
+        <v>0.00141650555964529</v>
       </c>
       <c r="T3">
-        <v>0.00353750412754491</v>
+        <v>0.001480767247562711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H4">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I4">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J4">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.941461333333333</v>
+        <v>6.458695666666666</v>
       </c>
       <c r="N4">
-        <v>11.824384</v>
+        <v>19.376087</v>
       </c>
       <c r="O4">
-        <v>0.1729643133359471</v>
+        <v>0.220138191310886</v>
       </c>
       <c r="P4">
-        <v>0.1768816120332554</v>
+        <v>0.2258375664768763</v>
       </c>
       <c r="Q4">
-        <v>0.4051283584284444</v>
+        <v>0.1807745859128889</v>
       </c>
       <c r="R4">
-        <v>3.646155225856</v>
+        <v>1.626971273216</v>
       </c>
       <c r="S4">
-        <v>0.001728960204199396</v>
+        <v>0.001175409150952231</v>
       </c>
       <c r="T4">
-        <v>0.001791348930019685</v>
+        <v>0.001228733174652278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H5">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I5">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J5">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5140005</v>
+        <v>2.221272</v>
       </c>
       <c r="N5">
-        <v>3.028001</v>
+        <v>4.442544</v>
       </c>
       <c r="O5">
-        <v>0.06643933169104974</v>
+        <v>0.07570983767096748</v>
       </c>
       <c r="P5">
-        <v>0.0452960338668221</v>
+        <v>0.05177997631443582</v>
       </c>
       <c r="Q5">
-        <v>0.1556185600598333</v>
+        <v>0.062171922432</v>
       </c>
       <c r="R5">
-        <v>0.9337113603589999</v>
+        <v>0.373031534592</v>
       </c>
       <c r="S5">
-        <v>0.0006641309890573547</v>
+        <v>0.000404246239535459</v>
       </c>
       <c r="T5">
-        <v>0.000458730564860591</v>
+        <v>0.0002817236107916127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H6">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I6">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J6">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.832852666666666</v>
+        <v>4.517592</v>
       </c>
       <c r="N6">
-        <v>11.498558</v>
+        <v>13.552776</v>
       </c>
       <c r="O6">
-        <v>0.1681982070967554</v>
+        <v>0.1539776114693119</v>
       </c>
       <c r="P6">
-        <v>0.1720075629392521</v>
+        <v>0.1579640900067291</v>
       </c>
       <c r="Q6">
-        <v>0.3939648718135555</v>
+        <v>0.126444388352</v>
       </c>
       <c r="R6">
-        <v>3.545683846322</v>
+        <v>1.137999495168</v>
       </c>
       <c r="S6">
-        <v>0.001681317960214975</v>
+        <v>0.0008221503614845339</v>
       </c>
       <c r="T6">
-        <v>0.001741987537792183</v>
+        <v>0.0008594483230711751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.823066</v>
       </c>
       <c r="I7">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J7">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.715915666666668</v>
+        <v>8.358234666666666</v>
       </c>
       <c r="N7">
-        <v>17.147747</v>
+        <v>25.074704</v>
       </c>
       <c r="O7">
-        <v>0.2508332176216154</v>
+        <v>0.2848820810009698</v>
       </c>
       <c r="P7">
-        <v>0.2565140925817717</v>
+        <v>0.2922576747042885</v>
       </c>
       <c r="Q7">
-        <v>7.284107614700223</v>
+        <v>10.65136092471822</v>
       </c>
       <c r="R7">
-        <v>65.55696853230201</v>
+        <v>95.86224832246398</v>
       </c>
       <c r="S7">
-        <v>0.03108627655140283</v>
+        <v>0.06925590252515791</v>
       </c>
       <c r="T7">
-        <v>0.03220801040035351</v>
+        <v>0.07239779008373935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.823066</v>
       </c>
       <c r="I8">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J8">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.350452</v>
       </c>
       <c r="O8">
-        <v>0.3415649302546324</v>
+        <v>0.2652922785478647</v>
       </c>
       <c r="P8">
-        <v>0.3493006985788987</v>
+        <v>0.2721606924976703</v>
       </c>
       <c r="Q8">
         <v>9.918924347314665</v>
@@ -948,10 +948,10 @@
         <v>89.27031912583199</v>
       </c>
       <c r="S8">
-        <v>0.0423308443069668</v>
+        <v>0.06449354806463034</v>
       </c>
       <c r="T8">
-        <v>0.04385833315997461</v>
+        <v>0.06741938498083296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.823066</v>
       </c>
       <c r="I9">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J9">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.941461333333333</v>
+        <v>6.458695666666666</v>
       </c>
       <c r="N9">
-        <v>11.824384</v>
+        <v>19.376087</v>
       </c>
       <c r="O9">
-        <v>0.1729643133359471</v>
+        <v>0.220138191310886</v>
       </c>
       <c r="P9">
-        <v>0.1768816120332554</v>
+        <v>0.2258375664768763</v>
       </c>
       <c r="Q9">
-        <v>5.022822271260444</v>
+        <v>8.230673269193554</v>
       </c>
       <c r="R9">
-        <v>45.205400441344</v>
+        <v>74.07605942274199</v>
       </c>
       <c r="S9">
-        <v>0.02143582308941126</v>
+        <v>0.05351642007781944</v>
       </c>
       <c r="T9">
-        <v>0.02220932480807966</v>
+        <v>0.05594426475663566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.823066</v>
       </c>
       <c r="I10">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J10">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5140005</v>
+        <v>2.221272</v>
       </c>
       <c r="N10">
-        <v>3.028001</v>
+        <v>4.442544</v>
       </c>
       <c r="O10">
-        <v>0.06643933169104974</v>
+        <v>0.07570983767096748</v>
       </c>
       <c r="P10">
-        <v>0.0452960338668221</v>
+        <v>0.05177997631443582</v>
       </c>
       <c r="Q10">
-        <v>1.929374611844333</v>
+        <v>2.830689819984</v>
       </c>
       <c r="R10">
-        <v>11.576247671066</v>
+        <v>16.984138919904</v>
       </c>
       <c r="S10">
-        <v>0.008233963023007419</v>
+        <v>0.01840534553634562</v>
       </c>
       <c r="T10">
-        <v>0.005687387835864431</v>
+        <v>0.01282688593052886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.823066</v>
       </c>
       <c r="I11">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J11">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.832852666666666</v>
+        <v>4.517592</v>
       </c>
       <c r="N11">
-        <v>11.498558</v>
+        <v>13.552776</v>
       </c>
       <c r="O11">
-        <v>0.1681982070967554</v>
+        <v>0.1539776114693119</v>
       </c>
       <c r="P11">
-        <v>0.1720075629392521</v>
+        <v>0.1579640900067291</v>
       </c>
       <c r="Q11">
-        <v>4.884416237647555</v>
+        <v>5.757017459024</v>
       </c>
       <c r="R11">
-        <v>43.959746138828</v>
+        <v>51.813157131216</v>
       </c>
       <c r="S11">
-        <v>0.02084514974068286</v>
+        <v>0.03743253494044435</v>
       </c>
       <c r="T11">
-        <v>0.02159733728594596</v>
+        <v>0.03913071244629412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H12">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I12">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J12">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.715915666666668</v>
+        <v>8.358234666666666</v>
       </c>
       <c r="N12">
-        <v>17.147747</v>
+        <v>25.074704</v>
       </c>
       <c r="O12">
-        <v>0.2508332176216154</v>
+        <v>0.2848820810009698</v>
       </c>
       <c r="P12">
-        <v>0.2565140925817717</v>
+        <v>0.2922576747042885</v>
       </c>
       <c r="Q12">
-        <v>15.29384310206289</v>
+        <v>26.48489142256889</v>
       </c>
       <c r="R12">
-        <v>137.644587918566</v>
+        <v>238.36402280312</v>
       </c>
       <c r="S12">
-        <v>0.0652693042652223</v>
+        <v>0.1722066383549336</v>
       </c>
       <c r="T12">
-        <v>0.06762451679029574</v>
+        <v>0.1800190250949079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H13">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I13">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J13">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.350452</v>
       </c>
       <c r="O13">
-        <v>0.3415649302546324</v>
+        <v>0.2652922785478647</v>
       </c>
       <c r="P13">
-        <v>0.3493006985788987</v>
+        <v>0.2721606924976703</v>
       </c>
       <c r="Q13">
-        <v>20.82595161045066</v>
+        <v>24.66366844800666</v>
       </c>
       <c r="R13">
-        <v>187.433564494056</v>
+        <v>221.97301603206</v>
       </c>
       <c r="S13">
-        <v>0.08887860057175256</v>
+        <v>0.1603649176870935</v>
       </c>
       <c r="T13">
-        <v>0.09208574358689768</v>
+        <v>0.167640088774944</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H14">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I14">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J14">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.941461333333333</v>
+        <v>6.458695666666666</v>
       </c>
       <c r="N14">
-        <v>11.824384</v>
+        <v>19.376087</v>
       </c>
       <c r="O14">
-        <v>0.1729643133359471</v>
+        <v>0.220138191310886</v>
       </c>
       <c r="P14">
-        <v>0.1768816120332554</v>
+        <v>0.2258375664768763</v>
       </c>
       <c r="Q14">
-        <v>10.54600780350578</v>
+        <v>20.46578736838722</v>
       </c>
       <c r="R14">
-        <v>94.914070231552</v>
+        <v>184.192086315485</v>
       </c>
       <c r="S14">
-        <v>0.04500703894481451</v>
+        <v>0.1330699978250084</v>
       </c>
       <c r="T14">
-        <v>0.04663109703816508</v>
+        <v>0.139106898007415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H15">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I15">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J15">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5140005</v>
+        <v>2.221272</v>
       </c>
       <c r="N15">
-        <v>3.028001</v>
+        <v>4.442544</v>
       </c>
       <c r="O15">
-        <v>0.06643933169104974</v>
+        <v>0.07570983767096748</v>
       </c>
       <c r="P15">
-        <v>0.0452960338668221</v>
+        <v>0.05177997631443582</v>
       </c>
       <c r="Q15">
-        <v>4.050949568496333</v>
+        <v>7.038585309719999</v>
       </c>
       <c r="R15">
-        <v>24.305697410978</v>
+        <v>42.23151185832</v>
       </c>
       <c r="S15">
-        <v>0.01728817656783693</v>
+        <v>0.04576537980172448</v>
       </c>
       <c r="T15">
-        <v>0.01194134159231135</v>
+        <v>0.0318943920463122</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H16">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I16">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J16">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.832852666666666</v>
+        <v>4.517592</v>
       </c>
       <c r="N16">
-        <v>11.498558</v>
+        <v>13.552776</v>
       </c>
       <c r="O16">
-        <v>0.1681982070967554</v>
+        <v>0.1539776114693119</v>
       </c>
       <c r="P16">
-        <v>0.1720075629392521</v>
+        <v>0.1579640900067291</v>
       </c>
       <c r="Q16">
-        <v>10.25540801085822</v>
+        <v>14.31497659292</v>
       </c>
       <c r="R16">
-        <v>92.29867209772399</v>
+        <v>128.83478933628</v>
       </c>
       <c r="S16">
-        <v>0.04376685057887231</v>
+        <v>0.09307699087245151</v>
       </c>
       <c r="T16">
-        <v>0.0453461570511385</v>
+        <v>0.09729955427787569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H17">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I17">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J17">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.715915666666668</v>
+        <v>8.358234666666666</v>
       </c>
       <c r="N17">
-        <v>17.147747</v>
+        <v>25.074704</v>
       </c>
       <c r="O17">
-        <v>0.2508332176216154</v>
+        <v>0.2848820810009698</v>
       </c>
       <c r="P17">
-        <v>0.2565140925817717</v>
+        <v>0.2922576747042885</v>
       </c>
       <c r="Q17">
-        <v>2.286680642028334</v>
+        <v>2.448916787042667</v>
       </c>
       <c r="R17">
-        <v>13.72008385217</v>
+        <v>14.693500722256</v>
       </c>
       <c r="S17">
-        <v>0.009758832595962082</v>
+        <v>0.01592303025823309</v>
       </c>
       <c r="T17">
-        <v>0.006740650357965791</v>
+        <v>0.01109693335489901</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H18">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I18">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J18">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>23.350452</v>
       </c>
       <c r="O18">
-        <v>0.3415649302546324</v>
+        <v>0.2652922785478647</v>
       </c>
       <c r="P18">
-        <v>0.3493006985788987</v>
+        <v>0.2721606924976703</v>
       </c>
       <c r="Q18">
-        <v>3.11382169162</v>
+        <v>2.280518002837999</v>
       </c>
       <c r="R18">
-        <v>18.68293014972</v>
+        <v>13.683108017028</v>
       </c>
       <c r="S18">
-        <v>0.01328881001731877</v>
+        <v>0.01482808944581836</v>
       </c>
       <c r="T18">
-        <v>0.00917888703585742</v>
+        <v>0.01033385716739741</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H19">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I19">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J19">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.941461333333333</v>
+        <v>6.458695666666666</v>
       </c>
       <c r="N19">
-        <v>11.824384</v>
+        <v>19.376087</v>
       </c>
       <c r="O19">
-        <v>0.1729643133359471</v>
+        <v>0.220138191310886</v>
       </c>
       <c r="P19">
-        <v>0.1768816120332554</v>
+        <v>0.2258375664768763</v>
       </c>
       <c r="Q19">
-        <v>1.576801313706667</v>
+        <v>1.892362307507166</v>
       </c>
       <c r="R19">
-        <v>9.460807882239999</v>
+        <v>11.354173845043</v>
       </c>
       <c r="S19">
-        <v>0.00672929125945073</v>
+        <v>0.01230427364515078</v>
       </c>
       <c r="T19">
-        <v>0.004648076405741521</v>
+        <v>0.008574982425225246</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H20">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I20">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J20">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5140005</v>
+        <v>2.221272</v>
       </c>
       <c r="N20">
-        <v>3.028001</v>
+        <v>4.442544</v>
       </c>
       <c r="O20">
-        <v>0.06643933169104974</v>
+        <v>0.07570983767096748</v>
       </c>
       <c r="P20">
-        <v>0.0452960338668221</v>
+        <v>0.05177997631443582</v>
       </c>
       <c r="Q20">
-        <v>0.6056834700274999</v>
+        <v>0.650820479004</v>
       </c>
       <c r="R20">
-        <v>2.42273388011</v>
+        <v>2.603281916016</v>
       </c>
       <c r="S20">
-        <v>0.002584866238643983</v>
+        <v>0.004231680812794352</v>
       </c>
       <c r="T20">
-        <v>0.001190284416055985</v>
+        <v>0.001966069657061813</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H21">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I21">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J21">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.832852666666666</v>
+        <v>4.517592</v>
       </c>
       <c r="N21">
-        <v>11.498558</v>
+        <v>13.552776</v>
       </c>
       <c r="O21">
-        <v>0.1681982070967554</v>
+        <v>0.1539776114693119</v>
       </c>
       <c r="P21">
-        <v>0.1720075629392521</v>
+        <v>0.1579640900067291</v>
       </c>
       <c r="Q21">
-        <v>1.533351873563333</v>
+        <v>1.323629609244</v>
       </c>
       <c r="R21">
-        <v>9.200111241379998</v>
+        <v>7.941777655464</v>
       </c>
       <c r="S21">
-        <v>0.006543862737009155</v>
+        <v>0.00860633339205341</v>
       </c>
       <c r="T21">
-        <v>0.004519996656049939</v>
+        <v>0.005997847553688963</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H22">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I22">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J22">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.715915666666668</v>
+        <v>8.358234666666666</v>
       </c>
       <c r="N22">
-        <v>17.147747</v>
+        <v>25.074704</v>
       </c>
       <c r="O22">
-        <v>0.2508332176216154</v>
+        <v>0.2848820810009698</v>
       </c>
       <c r="P22">
-        <v>0.2565140925817717</v>
+        <v>0.2922576747042885</v>
       </c>
       <c r="Q22">
-        <v>33.32285854771823</v>
+        <v>3.994943632453333</v>
       </c>
       <c r="R22">
-        <v>299.905726929464</v>
+        <v>35.95449269208</v>
       </c>
       <c r="S22">
-        <v>0.1422114624181425</v>
+        <v>0.02597540621880744</v>
       </c>
       <c r="T22">
-        <v>0.1473430969784742</v>
+        <v>0.02715381560562215</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H23">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I23">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J23">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>23.350452</v>
       </c>
       <c r="O23">
-        <v>0.3415649302546324</v>
+        <v>0.2652922785478647</v>
       </c>
       <c r="P23">
-        <v>0.3493006985788987</v>
+        <v>0.2721606924976703</v>
       </c>
       <c r="Q23">
-        <v>45.37644560660267</v>
+        <v>3.720232930059999</v>
       </c>
       <c r="R23">
-        <v>408.388010459424</v>
+        <v>33.48209637053999</v>
       </c>
       <c r="S23">
-        <v>0.1936523746848282</v>
+        <v>0.0241892177906772</v>
       </c>
       <c r="T23">
-        <v>0.200640230668624</v>
+        <v>0.02528659432693327</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H24">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I24">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J24">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.941461333333333</v>
+        <v>6.458695666666666</v>
       </c>
       <c r="N24">
-        <v>11.824384</v>
+        <v>19.376087</v>
       </c>
       <c r="O24">
-        <v>0.1729643133359471</v>
+        <v>0.220138191310886</v>
       </c>
       <c r="P24">
-        <v>0.1768816120332554</v>
+        <v>0.2258375664768763</v>
       </c>
       <c r="Q24">
-        <v>22.97807842895645</v>
+        <v>3.087030474318333</v>
       </c>
       <c r="R24">
-        <v>206.802705860608</v>
+        <v>27.783274268865</v>
       </c>
       <c r="S24">
-        <v>0.09806319983807114</v>
+        <v>0.02007209061195514</v>
       </c>
       <c r="T24">
-        <v>0.1016017648512495</v>
+        <v>0.02098268811294812</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H25">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I25">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J25">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5140005</v>
+        <v>2.221272</v>
       </c>
       <c r="N25">
-        <v>3.028001</v>
+        <v>4.442544</v>
       </c>
       <c r="O25">
-        <v>0.06643933169104974</v>
+        <v>0.07570983767096748</v>
       </c>
       <c r="P25">
-        <v>0.0452960338668221</v>
+        <v>0.05177997631443582</v>
       </c>
       <c r="Q25">
-        <v>8.826376637585334</v>
+        <v>1.06169027148</v>
       </c>
       <c r="R25">
-        <v>52.958259825512</v>
+        <v>6.370141628879999</v>
       </c>
       <c r="S25">
-        <v>0.03766819487250404</v>
+        <v>0.006903185280567561</v>
       </c>
       <c r="T25">
-        <v>0.02601828945772974</v>
+        <v>0.004810905069741325</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H26">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I26">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J26">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.832852666666666</v>
+        <v>4.517592</v>
       </c>
       <c r="N26">
-        <v>11.498558</v>
+        <v>13.552776</v>
       </c>
       <c r="O26">
-        <v>0.1681982070967554</v>
+        <v>0.1539776114693119</v>
       </c>
       <c r="P26">
-        <v>0.1720075629392521</v>
+        <v>0.1579640900067291</v>
       </c>
       <c r="Q26">
-        <v>22.34490756929955</v>
+        <v>2.15925086028</v>
       </c>
       <c r="R26">
-        <v>201.104168123696</v>
+        <v>19.43325774252</v>
       </c>
       <c r="S26">
-        <v>0.09536102607997606</v>
+        <v>0.01403960190287807</v>
       </c>
       <c r="T26">
-        <v>0.09880208440832547</v>
+        <v>0.01467652740579915</v>
       </c>
     </row>
   </sheetData>
